--- a/output/PA73405 - Attrition by Job 2009 - Sales - 2019-02-17.xlsx
+++ b/output/PA73405 - Attrition by Job 2009 - Sales - 2019-02-17.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">year</t>
   </si>
@@ -36,10 +36,22 @@
     <t xml:space="preserve">2009</t>
   </si>
   <si>
+    <t xml:space="preserve">Regional Leader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Salesperson</t>
   </si>
   <si>
-    <t xml:space="preserve">10%</t>
+    <t xml:space="preserve">10.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department Leader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0%</t>
   </si>
   <si>
     <t xml:space="preserve">Information</t>
@@ -116,8 +128,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F2" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:F2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F4" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:F4"/>
   <tableColumns count="6">
     <tableColumn id="1" name="year"/>
     <tableColumn id="2" name="job_name"/>
@@ -453,16 +465,56 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>315</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>350</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>315</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35</v>
+      </c>
+      <c r="E3" t="n">
+        <v>350</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -487,37 +539,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
